--- a/Digital twin Loenen/_mvlv_transformers.xlsx
+++ b/Digital twin Loenen/_mvlv_transformers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Digital-twin-Loenen\Digital twin Loenen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E353E1-0AEC-44AD-8E50-57C67895395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9766256-A3AC-43DB-BBB3-BC648DD1DE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="A9" sqref="A9:XFD272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -656,76 +656,6 @@
         <v>52.109459904116342</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
